--- a/data-raw/vaneeuwijk.nematodes.xlsx
+++ b/data-raw/vaneeuwijk.nematodes.xlsx
@@ -1,17 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1593CD9-DAED-4BBD-8E76-0F9A7F0FBF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="108" windowWidth="14208" windowHeight="6204"/>
+    <workbookView xWindow="41475" yWindow="3465" windowWidth="11385" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -63,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,14 +124,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -150,7 +172,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -222,7 +244,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -395,16 +417,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +443,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>12380</v>
       </c>
@@ -441,7 +463,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -461,7 +483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -481,7 +503,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -501,7 +523,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -521,7 +543,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -541,7 +563,7 @@
         <v>260.8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -561,7 +583,7 @@
         <v>106.2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -581,7 +603,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -601,7 +623,7 @@
         <v>104.6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -621,7 +643,7 @@
         <v>204.4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -647,24 +669,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
